--- a/Project 2/microcode.xlsx
+++ b/Project 2/microcode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/062c8be6d52f0922/Documents/School/Academics/Computer Science/CS 2200/Project 2/microcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/062c8be6d52f0922/Documents/School/Academics/Computer Science/CS 2200/Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{4DCD331C-2F2C-EB40-9419-3A93F7678834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DD156E5-72CD-4812-96F1-E4F0F7EE0EDC}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{4DCD331C-2F2C-EB40-9419-3A93F7678834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2011E974-833F-4561-92EA-2B49736F7982}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="0" windowWidth="14016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10272" yWindow="0" windowWidth="12864" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>Index</t>
   </si>
@@ -431,21 +431,12 @@
     <t>37</t>
   </si>
   <si>
-    <t>EI</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
-    <t>DI</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
-    <t>RETI</t>
-  </si>
-  <si>
     <t>1101</t>
   </si>
   <si>
@@ -456,6 +447,21 @@
   </si>
   <si>
     <t>reti</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>in1</t>
+  </si>
+  <si>
+    <t>in2</t>
+  </si>
+  <si>
+    <t>in3</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1209,8 @@
   <dimension ref="A1:AP997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -5777,7 +5783,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -5888,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -5999,7 +6005,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -6109,18 +6115,20 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -6130,7 +6138,7 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -6145,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -6205,12 +6213,12 @@
         <v>0</v>
       </c>
       <c r="AH45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>00000000</v>
+        <v>4000042C</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1">
@@ -6218,28 +6226,30 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -6275,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="2">
         <v>0</v>
@@ -6311,15 +6321,15 @@
         <v>0</v>
       </c>
       <c r="AG46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>00000000</v>
+        <v>6002002D</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
@@ -6327,7 +6337,9 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
@@ -7107,10 +7119,10 @@
     </row>
     <row r="65" spans="12:15" ht="14.25" customHeight="1">
       <c r="L65" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M65" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N65" s="4">
         <v>40</v>
@@ -7122,10 +7134,10 @@
     </row>
     <row r="66" spans="12:15" ht="14.25" customHeight="1">
       <c r="L66" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N66" s="4">
         <v>41</v>
@@ -7137,10 +7149,10 @@
     </row>
     <row r="67" spans="12:15" ht="14.25" customHeight="1">
       <c r="L67" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N67" s="4">
         <v>42</v>
@@ -7151,11 +7163,18 @@
       </c>
     </row>
     <row r="68" spans="12:15" ht="14.25" customHeight="1">
-      <c r="L68" s="23"/>
-      <c r="M68" s="24"/>
+      <c r="L68" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M68" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N68" s="4">
+        <v>43</v>
+      </c>
       <c r="O68" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>00</v>
+        <v>2B</v>
       </c>
     </row>
     <row r="69" spans="12:15" ht="14.25" customHeight="1">
